--- a/biology/Zoologie/Cassiopea/Cassiopea.xlsx
+++ b/biology/Zoologie/Cassiopea/Cassiopea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Cassiopea, aussi appelé Cassiopeia, est un genre de méduses de la famille des Cassiopeidae, de l'ordre Rhizostomeae et de la classe des Scyphozoa.
 </t>
@@ -511,10 +523,12 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre comprend des méduses qui possèdent, entre leurs bras, une algue symbiotique : la zooxanthelle. Cette algue fournit ses excès de nourriture produits à la méduse, qui s'en nourrit. Elle peut compléter son alimentation par la capture d'animaux planctoniques grâce à ses bras urticants.
-Ces méduses sédentaires et benthiques se tiennent généralement à l'envers, immobiles, pour donner une luminosité suffisante à leurs algues. Lorsqu'elles se déplacent, elles se remettent à l'endroit. Cette particularité comportementale leur a valu leur nom de « Méduses à l'envers » (Upside-downs jellyfish en anglais). Certaines espèces de Cassiopea peuvent entrer dans un état de sommeil, qui se manifeste par un cycle où la fréquence de leurs pulsations est réduite[2],[3].
+Ces méduses sédentaires et benthiques se tiennent généralement à l'envers, immobiles, pour donner une luminosité suffisante à leurs algues. Lorsqu'elles se déplacent, elles se remettent à l'endroit. Cette particularité comportementale leur a valu leur nom de « Méduses à l'envers » (Upside-downs jellyfish en anglais). Certaines espèces de Cassiopea peuvent entrer dans un état de sommeil, qui se manifeste par un cycle où la fréquence de leurs pulsations est réduite,.
 Ces méduses ne sont pas les seuls animaux à vivre en symbiose avec une algue zooxanthelles : l'exemple le mieux connu est celui des coraux d'eau chaudes, mais aussi d'autres espèces de méduses (Cotylorhiza, Rhizostoma, méduse dé (en)…), des bivalves (bénitiers), ainsi que d'autres espèces marines (Radiolaires, nudibranches…).
 </t>
         </is>
@@ -544,9 +558,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (1 mars 2015)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (1 mars 2015) :
 Cassiopea andromeda (Forsskål, 1775) — Indo-Pacifique, et introduite en Méditerranée
 Cassiopea culionensis Light, 1914 — Philippines
 Cassiopea depressa Haeckel, 1880 — Océan indien occidental
